--- a/src/main/webapp/WEB-INF/template/Book2.xlsx
+++ b/src/main/webapp/WEB-INF/template/Book2.xlsx
@@ -15,18 +15,149 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>SeungMyeong Lee</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만든</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:
+jx:area(lastCell="D5")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만든</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:
+jx:each(items="list" var="rows" lastCell="D4")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>${test}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DATA LIST</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Birth Date</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>${rows.mytestId}</t>
+  </si>
+  <si>
+    <t>${rows.name}</t>
+  </si>
+  <si>
+    <t>${rows.email}</t>
+  </si>
+  <si>
+    <t>${rows.regDate}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="2">
+    <numFmt numFmtId="180" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="181" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,13 +173,66 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -60,18 +244,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -363,22 +557,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="29.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
